--- a/dist-db-working-hours-janeczek-mair.xlsx
+++ b/dist-db-working-hours-janeczek-mair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -276,26 +276,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,14 +697,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -746,10 +746,10 @@
       <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -767,10 +767,10 @@
       <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>0.14047453703703702</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -788,10 +788,10 @@
       <c r="D7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>2.9178240740740741E-2</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -809,10 +809,12 @@
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16">
+        <v>8.6956018518518516E-2</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
@@ -864,18 +866,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="17">
         <f>SUM(E5:E13)</f>
         <v>0.37500000000000006</v>
       </c>
       <c r="F14" s="17">
         <f>SUM(F5:F13)</f>
-        <v>0.23076388888888888</v>
+        <v>0.31771990740740741</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -925,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +950,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -997,10 +999,10 @@
       <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>0.1875</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>6.25E-2</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -1018,10 +1020,10 @@
       <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>6.9456018518518514E-2</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -1039,10 +1041,12 @@
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16">
+        <v>8.6956018518518516E-2</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
@@ -1112,18 +1116,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="17">
         <f>SUM(E5:E14)</f>
         <v>0.27083333333333331</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(F5:F14)</f>
-        <v>0.13195601851851851</v>
+        <v>0.21891203703703704</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -1184,12 +1188,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -1210,39 +1214,39 @@
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <f>SumEstJaneczek</f>
         <v>0.37500000000000006</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <f>SumActJaneczek</f>
-        <v>0.23076388888888888</v>
+        <v>0.31771990740740741</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <f>SumEstMair</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <f>SumActMair</f>
-        <v>0.13195601851851851</v>
+        <v>0.21891203703703704</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
         <v>0.64583333333333337</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.36271990740740739</v>
+        <v>0.53663194444444451</v>
       </c>
     </row>
   </sheetData>

--- a/dist-db-working-hours-janeczek-mair.xlsx
+++ b/dist-db-working-hours-janeczek-mair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -17,17 +17,17 @@
     <sheet name="SUM" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="SumActJaneczek">Janeczek!$F$14</definedName>
-    <definedName name="SumActMair">Mair!$F$15</definedName>
-    <definedName name="SumEstJaneczek">Janeczek!$E$14</definedName>
-    <definedName name="SumEstMair">Mair!$E$15</definedName>
+    <definedName name="SumActJaneczek">Janeczek!$F$12</definedName>
+    <definedName name="SumActMair">Mair!$F$10</definedName>
+    <definedName name="SumEstJaneczek">Janeczek!$E$12</definedName>
+    <definedName name="SumEstMair">Mair!$E$10</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>PHASE</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>ongoing</t>
+  </si>
+  <si>
+    <t>10.16.2014</t>
+  </si>
+  <si>
+    <t>Create Script Implementation + Inserts</t>
+  </si>
+  <si>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>Creating Links and using them</t>
+  </si>
+  <si>
+    <t>getting familiar with oraclexe wasn't 1-hour-ish</t>
+  </si>
+  <si>
+    <t>Adorning the documentation</t>
   </si>
 </sst>
 </file>
@@ -282,9 +300,6 @@
     <xf numFmtId="46" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="46" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,6 +310,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,14 +715,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -809,77 +827,109 @@
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="19">
         <v>8.6956018518518516E-2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F9" s="20">
+        <v>6.2256944444444441E-2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.10150462962962963</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="17">
+        <f>SUM(E5:E11)</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F12" s="17">
+        <f>SUM(F5:F11)</f>
+        <v>0.48148148148148151</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="17">
-        <f>SUM(E5:E13)</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="F14" s="17">
-        <f>SUM(F5:F13)</f>
-        <v>0.31771990740740741</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -897,25 +947,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -925,10 +959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,14 +984,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1041,10 +1075,10 @@
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="19">
         <v>8.6956018518518516E-2</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -1053,119 +1087,98 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>6.2256944444444441E-2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.10150462962962963</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="17">
+        <f>SUM(E5:E9)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F10" s="17">
+        <f>SUM(F5:F9)</f>
+        <v>0.38267361111111114</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="17">
-        <f>SUM(E5:E14)</f>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="F15" s="17">
-        <f>SUM(F5:F14)</f>
-        <v>0.21891203703703704</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1178,7 +1191,7 @@
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,12 +1201,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -1214,39 +1227,39 @@
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f>SumEstJaneczek</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="D6" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D6" s="22">
         <f>SumActJaneczek</f>
-        <v>0.31771990740740741</v>
+        <v>0.48148148148148151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f>SumEstMair</f>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D7" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="22">
         <f>SumActMair</f>
-        <v>0.21891203703703704</v>
+        <v>0.38267361111111114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D8" s="23">
+        <v>1.0625</v>
+      </c>
+      <c r="D8" s="22">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.53663194444444451</v>
+        <v>0.86415509259259271</v>
       </c>
     </row>
   </sheetData>

--- a/dist-db-working-hours-janeczek-mair.xlsx
+++ b/dist-db-working-hours-janeczek-mair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -306,13 +306,13 @@
     <xf numFmtId="46" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,14 +715,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -893,25 +893,27 @@
       <c r="E11" s="16">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16">
+        <v>3.290509259259259E-2</v>
+      </c>
       <c r="G11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="17">
         <f>SUM(E5:E11)</f>
         <v>0.60416666666666663</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(F5:F11)</f>
-        <v>0.48148148148148151</v>
+        <v>0.51438657407407407</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -961,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -984,14 +986,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1075,7 +1077,7 @@
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="19">
@@ -1129,11 +1131,11 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="17">
         <f>SUM(E5:E9)</f>
         <v>0.45833333333333331</v>
@@ -1201,12 +1203,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="D6" s="22">
         <f>SumActJaneczek</f>
-        <v>0.48148148148148151</v>
+        <v>0.51438657407407407</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,7 +1261,7 @@
       </c>
       <c r="D8" s="22">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.86415509259259271</v>
+        <v>0.89706018518518515</v>
       </c>
     </row>
   </sheetData>
